--- a/dataanalysis/data/predictions/1400/09241351_1353.xlsx
+++ b/dataanalysis/data/predictions/1400/09241351_1353.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-24</t>
   </si>
   <si>
@@ -515,12 +518,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -878,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,19 +984,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.39</v>
@@ -1017,7 +1017,7 @@
         <v>192188.42</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1059,10 +1059,25 @@
         <v>-0.15</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y2">
+        <v>-2.93</v>
+      </c>
+      <c r="Z2">
+        <v>67.33</v>
+      </c>
+      <c r="AA2">
+        <v>2.64</v>
       </c>
       <c r="AC2" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1070,22 +1085,25 @@
       <c r="AG2">
         <v>1.60705578327179</v>
       </c>
-      <c r="AH2" t="s">
-        <v>167</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.83</v>
@@ -1103,7 +1121,7 @@
         <v>607920.79</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -1145,10 +1163,25 @@
         <v>0.27</v>
       </c>
       <c r="X3" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y3">
+        <v>6.47</v>
+      </c>
+      <c r="Z3">
+        <v>83.88</v>
+      </c>
+      <c r="AA3">
+        <v>9.449999999999999</v>
       </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1156,22 +1189,25 @@
       <c r="AG3">
         <v>4.761959552764893</v>
       </c>
-      <c r="AH3" t="s">
-        <v>167</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300035</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>5.07</v>
@@ -1189,7 +1225,7 @@
         <v>163559.24</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>19</v>
@@ -1231,10 +1267,25 @@
         <v>0.62</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y4">
+        <v>-3.8</v>
+      </c>
+      <c r="Z4">
+        <v>23.85</v>
+      </c>
+      <c r="AA4">
+        <v>-1.65</v>
       </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1242,22 +1293,25 @@
       <c r="AG4">
         <v>-1.114278316497803</v>
       </c>
-      <c r="AH4" t="s">
-        <v>167</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300092</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.11</v>
@@ -1275,7 +1329,7 @@
         <v>67307.75</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1317,10 +1371,25 @@
         <v>-0.43</v>
       </c>
       <c r="X5" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y5">
+        <v>-6.53</v>
+      </c>
+      <c r="Z5">
+        <v>19.39</v>
+      </c>
+      <c r="AA5">
+        <v>0.83</v>
       </c>
       <c r="AC5" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1328,22 +1397,25 @@
       <c r="AG5">
         <v>2.463614940643311</v>
       </c>
-      <c r="AH5" t="s">
-        <v>167</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300111</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>20.03</v>
@@ -1361,7 +1433,7 @@
         <v>238556.77</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1403,10 +1475,25 @@
         <v>2.63</v>
       </c>
       <c r="X6" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y6">
+        <v>5.02</v>
+      </c>
+      <c r="Z6">
+        <v>10.28</v>
+      </c>
+      <c r="AA6">
+        <v>19.95</v>
       </c>
       <c r="AC6" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1414,22 +1501,25 @@
       <c r="AG6">
         <v>9.377296447753906</v>
       </c>
-      <c r="AH6" t="s">
-        <v>168</v>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300115</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>8.93</v>
@@ -1447,7 +1537,7 @@
         <v>812068.61</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1489,10 +1579,25 @@
         <v>0.67</v>
       </c>
       <c r="X7" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y7">
+        <v>-0.86</v>
+      </c>
+      <c r="Z7">
+        <v>43.51</v>
+      </c>
+      <c r="AA7">
+        <v>9.460000000000001</v>
       </c>
       <c r="AC7" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1500,22 +1605,25 @@
       <c r="AG7">
         <v>9.166140556335449</v>
       </c>
-      <c r="AH7" t="s">
-        <v>167</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.01</v>
@@ -1533,7 +1641,7 @@
         <v>154834.34</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -1575,10 +1683,25 @@
         <v>-1.6</v>
       </c>
       <c r="X8" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y8">
+        <v>-3.99</v>
+      </c>
+      <c r="Z8">
+        <v>27.3</v>
+      </c>
+      <c r="AA8">
+        <v>-2.4</v>
       </c>
       <c r="AC8" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1586,22 +1709,25 @@
       <c r="AG8">
         <v>24.43375015258789</v>
       </c>
-      <c r="AH8" t="s">
-        <v>167</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300207</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.78</v>
@@ -1619,7 +1745,7 @@
         <v>359263.21</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1661,10 +1787,25 @@
         <v>0.23</v>
       </c>
       <c r="X9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y9">
+        <v>1.21</v>
+      </c>
+      <c r="Z9">
+        <v>34.48</v>
+      </c>
+      <c r="AA9">
+        <v>3.67</v>
       </c>
       <c r="AC9" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1672,22 +1813,25 @@
       <c r="AG9">
         <v>2.494738340377808</v>
       </c>
-      <c r="AH9" t="s">
-        <v>167</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300223</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.64</v>
@@ -1705,7 +1849,7 @@
         <v>372159.62</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1747,10 +1891,25 @@
         <v>0.67</v>
       </c>
       <c r="X10" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y10">
+        <v>-2.07</v>
+      </c>
+      <c r="Z10">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1.57</v>
       </c>
       <c r="AC10" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1758,22 +1917,25 @@
       <c r="AG10">
         <v>2.258938789367676</v>
       </c>
-      <c r="AH10" t="s">
-        <v>167</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300236</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>11.55</v>
@@ -1791,7 +1953,7 @@
         <v>193814.44</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1833,10 +1995,25 @@
         <v>0.18</v>
       </c>
       <c r="X11" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y11">
+        <v>3.24</v>
+      </c>
+      <c r="Z11">
+        <v>67.13</v>
+      </c>
+      <c r="AA11">
+        <v>3.44</v>
       </c>
       <c r="AC11" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1844,22 +2021,25 @@
       <c r="AG11">
         <v>-1.280680179595947</v>
       </c>
-      <c r="AH11" t="s">
-        <v>168</v>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300250</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>5.25</v>
@@ -1877,7 +2057,7 @@
         <v>184345.34</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1919,10 +2099,25 @@
         <v>1.41</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y12">
+        <v>-8.41</v>
+      </c>
+      <c r="Z12">
+        <v>26.3</v>
+      </c>
+      <c r="AA12">
+        <v>-4.95</v>
       </c>
       <c r="AC12" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1930,22 +2125,25 @@
       <c r="AG12">
         <v>6.911826133728027</v>
       </c>
-      <c r="AH12" t="s">
-        <v>168</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300260</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.2</v>
@@ -1963,7 +2161,7 @@
         <v>223724.42</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2005,10 +2203,25 @@
         <v>-0.54</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y13">
+        <v>-2.87</v>
+      </c>
+      <c r="Z13">
+        <v>43.68</v>
+      </c>
+      <c r="AA13">
+        <v>-4.63</v>
       </c>
       <c r="AC13" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2016,22 +2229,25 @@
       <c r="AG13">
         <v>-6.628939151763916</v>
       </c>
-      <c r="AH13" t="s">
-        <v>167</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300274</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>5.96</v>
@@ -2049,7 +2265,7 @@
         <v>1447515.03</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -2091,10 +2307,25 @@
         <v>0.37</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y14">
+        <v>3.66</v>
+      </c>
+      <c r="Z14">
+        <v>163.25</v>
+      </c>
+      <c r="AA14">
+        <v>7.33</v>
       </c>
       <c r="AC14" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2102,22 +2333,25 @@
       <c r="AG14">
         <v>5.088723182678223</v>
       </c>
-      <c r="AH14" t="s">
-        <v>167</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300331</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.27</v>
@@ -2135,7 +2369,7 @@
         <v>153301.7</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -2177,10 +2411,25 @@
         <v>0.33</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y15">
+        <v>-4.77</v>
+      </c>
+      <c r="Z15">
+        <v>37</v>
+      </c>
+      <c r="AA15">
+        <v>-4.07</v>
       </c>
       <c r="AC15" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2188,22 +2437,25 @@
       <c r="AG15">
         <v>36.65753555297852</v>
       </c>
-      <c r="AH15" t="s">
-        <v>167</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300350</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.97</v>
@@ -2221,7 +2473,7 @@
         <v>56940.83</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2263,10 +2515,25 @@
         <v>-1.77</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y16">
+        <v>-5.59</v>
+      </c>
+      <c r="Z16">
+        <v>7.06</v>
+      </c>
+      <c r="AA16">
+        <v>-1.53</v>
       </c>
       <c r="AC16" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2274,22 +2541,25 @@
       <c r="AG16">
         <v>-0.9457717537879944</v>
       </c>
-      <c r="AH16" t="s">
-        <v>167</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300398</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.29</v>
@@ -2307,7 +2577,7 @@
         <v>265699.92</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2349,10 +2619,25 @@
         <v>0.63</v>
       </c>
       <c r="X17" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y17">
+        <v>1.31</v>
+      </c>
+      <c r="Z17">
+        <v>27.3</v>
+      </c>
+      <c r="AA17">
+        <v>1.56</v>
       </c>
       <c r="AC17" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2360,22 +2645,25 @@
       <c r="AG17">
         <v>-2.815276145935059</v>
       </c>
-      <c r="AH17" t="s">
-        <v>167</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300418</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>5.26</v>
@@ -2393,7 +2681,7 @@
         <v>510512.38</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2435,10 +2723,25 @@
         <v>0.77</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y18">
+        <v>7.4</v>
+      </c>
+      <c r="Z18">
+        <v>54</v>
+      </c>
+      <c r="AA18">
+        <v>18.29</v>
       </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2446,22 +2749,25 @@
       <c r="AG18">
         <v>-25.34668159484863</v>
       </c>
-      <c r="AH18" t="s">
-        <v>167</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300450</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.18</v>
@@ -2479,7 +2785,7 @@
         <v>1072675.02</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>19</v>
@@ -2521,10 +2827,25 @@
         <v>-0.18</v>
       </c>
       <c r="X19" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y19">
+        <v>-4.17</v>
+      </c>
+      <c r="Z19">
+        <v>69.72</v>
+      </c>
+      <c r="AA19">
+        <v>3.73</v>
       </c>
       <c r="AC19" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2532,22 +2853,25 @@
       <c r="AG19">
         <v>-5.765064239501953</v>
       </c>
-      <c r="AH19" t="s">
-        <v>167</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300457</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.85</v>
@@ -2565,7 +2889,7 @@
         <v>156588.06</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20">
         <v>17</v>
@@ -2607,10 +2931,25 @@
         <v>-0.32</v>
       </c>
       <c r="X20" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y20">
+        <v>-1.47</v>
+      </c>
+      <c r="Z20">
+        <v>35.86</v>
+      </c>
+      <c r="AA20">
+        <v>-0.03</v>
       </c>
       <c r="AC20" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2618,22 +2957,25 @@
       <c r="AG20">
         <v>6.380131721496582</v>
       </c>
-      <c r="AH20" t="s">
-        <v>167</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300458</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>4.13</v>
@@ -2651,7 +2993,7 @@
         <v>303836.93</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2693,10 +3035,25 @@
         <v>0.41</v>
       </c>
       <c r="X21" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y21">
+        <v>0.75</v>
+      </c>
+      <c r="Z21">
+        <v>52.99</v>
+      </c>
+      <c r="AA21">
+        <v>2.51</v>
       </c>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2704,22 +3061,25 @@
       <c r="AG21">
         <v>2.592093467712402</v>
       </c>
-      <c r="AH21" t="s">
-        <v>167</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300475</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.88</v>
@@ -2737,7 +3097,7 @@
         <v>332069.25</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2779,10 +3139,25 @@
         <v>0.33</v>
       </c>
       <c r="X22" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y22">
+        <v>-5.2</v>
+      </c>
+      <c r="Z22">
+        <v>83.12</v>
+      </c>
+      <c r="AA22">
+        <v>-1.14</v>
       </c>
       <c r="AC22" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2790,22 +3165,25 @@
       <c r="AG22">
         <v>-8.30494499206543</v>
       </c>
-      <c r="AH22" t="s">
-        <v>167</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300507</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.07</v>
@@ -2823,7 +3201,7 @@
         <v>67461.39999999999</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2865,10 +3243,25 @@
         <v>-0.36</v>
       </c>
       <c r="X23" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y23">
+        <v>-4.2</v>
+      </c>
+      <c r="Z23">
+        <v>10.14</v>
+      </c>
+      <c r="AA23">
+        <v>2.11</v>
       </c>
       <c r="AC23" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2876,22 +3269,25 @@
       <c r="AG23">
         <v>3.194539308547974</v>
       </c>
-      <c r="AH23" t="s">
-        <v>167</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.59</v>
@@ -2909,7 +3305,7 @@
         <v>73777.99000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>14</v>
@@ -2951,10 +3347,25 @@
         <v>-0.34</v>
       </c>
       <c r="X24" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y24">
+        <v>-2.26</v>
+      </c>
+      <c r="Z24">
+        <v>50</v>
+      </c>
+      <c r="AA24">
+        <v>1.17</v>
       </c>
       <c r="AC24" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2962,22 +3373,25 @@
       <c r="AG24">
         <v>3.536595582962036</v>
       </c>
-      <c r="AH24" t="s">
-        <v>167</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300604</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -2995,7 +3409,7 @@
         <v>1120365.36</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>21</v>
@@ -3037,10 +3451,25 @@
         <v>-0.79</v>
       </c>
       <c r="X25" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y25">
+        <v>-1.8</v>
+      </c>
+      <c r="Z25">
+        <v>99.5</v>
+      </c>
+      <c r="AA25">
+        <v>3.3</v>
       </c>
       <c r="AC25" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3048,22 +3477,25 @@
       <c r="AG25">
         <v>23.65329551696777</v>
       </c>
-      <c r="AH25" t="s">
-        <v>167</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300620</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-7.78</v>
@@ -3081,7 +3513,7 @@
         <v>261809.38</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -3123,10 +3555,25 @@
         <v>-0.61</v>
       </c>
       <c r="X26" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y26">
+        <v>1.51</v>
+      </c>
+      <c r="Z26">
+        <v>132.98</v>
+      </c>
+      <c r="AA26">
+        <v>6.3</v>
       </c>
       <c r="AC26" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3134,22 +3581,25 @@
       <c r="AG26">
         <v>-2.266595363616943</v>
       </c>
-      <c r="AH26" t="s">
-        <v>167</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300666</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -3167,7 +3617,7 @@
         <v>370628.99</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3209,10 +3659,25 @@
         <v>2.44</v>
       </c>
       <c r="X27" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y27">
+        <v>1.3</v>
+      </c>
+      <c r="Z27">
+        <v>103.23</v>
+      </c>
+      <c r="AA27">
+        <v>4.46</v>
       </c>
       <c r="AC27" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3220,22 +3685,25 @@
       <c r="AG27">
         <v>3.620264053344727</v>
       </c>
-      <c r="AH27" t="s">
-        <v>168</v>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300680</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.86</v>
@@ -3253,7 +3721,7 @@
         <v>80533.27</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K28">
         <v>10</v>
@@ -3295,10 +3763,25 @@
         <v>0.51</v>
       </c>
       <c r="X28" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y28">
+        <v>-3.31</v>
+      </c>
+      <c r="Z28">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AA28">
+        <v>-0.67</v>
       </c>
       <c r="AC28" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3306,22 +3789,25 @@
       <c r="AG28">
         <v>3.717550039291382</v>
       </c>
-      <c r="AH28" t="s">
-        <v>167</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300827</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.88</v>
@@ -3339,7 +3825,7 @@
         <v>197063.97</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>15</v>
@@ -3381,10 +3867,25 @@
         <v>0.98</v>
       </c>
       <c r="X29" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y29">
+        <v>-1.71</v>
+      </c>
+      <c r="Z29">
+        <v>34.65</v>
+      </c>
+      <c r="AA29">
+        <v>0.99</v>
       </c>
       <c r="AC29" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3392,22 +3893,25 @@
       <c r="AG29">
         <v>8.310129165649414</v>
       </c>
-      <c r="AH29" t="s">
-        <v>167</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300857</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.93</v>
@@ -3425,7 +3929,7 @@
         <v>222226.94</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K30">
         <v>24</v>
@@ -3467,10 +3971,25 @@
         <v>-0.01</v>
       </c>
       <c r="X30" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y30">
+        <v>-2.44</v>
+      </c>
+      <c r="Z30">
+        <v>173.88</v>
+      </c>
+      <c r="AA30">
+        <v>0.95</v>
       </c>
       <c r="AC30" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3478,22 +3997,25 @@
       <c r="AG30">
         <v>1.923336744308472</v>
       </c>
-      <c r="AH30" t="s">
-        <v>167</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300959</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.04</v>
@@ -3511,7 +4033,7 @@
         <v>67577.99000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3553,10 +4075,25 @@
         <v>0.53</v>
       </c>
       <c r="X31" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y31">
+        <v>8.51</v>
+      </c>
+      <c r="Z31">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AA31">
+        <v>10.92</v>
       </c>
       <c r="AC31" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3564,22 +4101,25 @@
       <c r="AG31">
         <v>3.11742377281189</v>
       </c>
-      <c r="AH31" t="s">
-        <v>167</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300969</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.23</v>
@@ -3597,7 +4137,7 @@
         <v>41356.05</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3639,10 +4179,25 @@
         <v>-0.35</v>
       </c>
       <c r="X32" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y32">
+        <v>0.99</v>
+      </c>
+      <c r="Z32">
+        <v>145</v>
+      </c>
+      <c r="AA32">
+        <v>6.7</v>
       </c>
       <c r="AC32" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3650,22 +4205,25 @@
       <c r="AG32">
         <v>0.7150734066963196</v>
       </c>
-      <c r="AH32" t="s">
-        <v>167</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301008</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-6.4</v>
@@ -3683,7 +4241,7 @@
         <v>82780.12</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3725,10 +4283,25 @@
         <v>0.04</v>
       </c>
       <c r="X33" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y33">
+        <v>-7.08</v>
+      </c>
+      <c r="Z33">
+        <v>49.34</v>
+      </c>
+      <c r="AA33">
+        <v>0.49</v>
       </c>
       <c r="AC33" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3736,22 +4309,25 @@
       <c r="AG33">
         <v>2.42543625831604</v>
       </c>
-      <c r="AH33" t="s">
-        <v>167</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301013</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.75</v>
@@ -3769,7 +4345,7 @@
         <v>136253.75</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3811,10 +4387,25 @@
         <v>0.48</v>
       </c>
       <c r="X34" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y34">
+        <v>-5.59</v>
+      </c>
+      <c r="Z34">
+        <v>28.78</v>
+      </c>
+      <c r="AA34">
+        <v>0.95</v>
       </c>
       <c r="AC34" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3822,22 +4413,25 @@
       <c r="AG34">
         <v>8.839171409606934</v>
       </c>
-      <c r="AH34" t="s">
-        <v>167</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301052</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>2.49</v>
@@ -3855,7 +4449,7 @@
         <v>113199.69</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3897,10 +4491,25 @@
         <v>-0.36</v>
       </c>
       <c r="X35" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y35">
+        <v>-1.66</v>
+      </c>
+      <c r="Z35">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="AA35">
+        <v>1.75</v>
       </c>
       <c r="AC35" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3908,22 +4517,25 @@
       <c r="AG35">
         <v>-1.971529603004456</v>
       </c>
-      <c r="AH35" t="s">
-        <v>167</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301086</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.26</v>
@@ -3941,7 +4553,7 @@
         <v>38668.55</v>
       </c>
       <c r="J36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3983,10 +4595,25 @@
         <v>-0.51</v>
       </c>
       <c r="X36" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y36">
+        <v>7.75</v>
+      </c>
+      <c r="Z36">
+        <v>90.42</v>
+      </c>
+      <c r="AA36">
+        <v>14.56</v>
       </c>
       <c r="AC36" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3994,22 +4621,25 @@
       <c r="AG36">
         <v>-12.88858985900879</v>
       </c>
-      <c r="AH36" t="s">
-        <v>167</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301095</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-0.71</v>
@@ -4027,7 +4657,7 @@
         <v>100557.64</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4069,10 +4699,25 @@
         <v>0.09</v>
       </c>
       <c r="X37" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y37">
+        <v>-0.79</v>
+      </c>
+      <c r="Z37">
+        <v>94.56</v>
+      </c>
+      <c r="AA37">
+        <v>0.23</v>
       </c>
       <c r="AC37" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4080,22 +4725,25 @@
       <c r="AG37">
         <v>9.884238243103027</v>
       </c>
-      <c r="AH37" t="s">
-        <v>167</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301307</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4113,7 +4761,7 @@
         <v>77577.03</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K38">
         <v>11</v>
@@ -4155,10 +4803,25 @@
         <v>0.71</v>
       </c>
       <c r="X38" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y38">
+        <v>-7.69</v>
+      </c>
+      <c r="Z38">
+        <v>39.33</v>
+      </c>
+      <c r="AA38">
+        <v>-1.94</v>
       </c>
       <c r="AC38" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4166,22 +4829,25 @@
       <c r="AG38">
         <v>-1.515331983566284</v>
       </c>
-      <c r="AH38" t="s">
-        <v>167</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301308</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.97</v>
@@ -4199,7 +4865,7 @@
         <v>323655.19</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4241,10 +4907,25 @@
         <v>0.2</v>
       </c>
       <c r="X39" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y39">
+        <v>-4.61</v>
+      </c>
+      <c r="Z39">
+        <v>146.88</v>
+      </c>
+      <c r="AA39">
+        <v>-2.1</v>
       </c>
       <c r="AC39" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4252,22 +4933,25 @@
       <c r="AG39">
         <v>1.686920166015625</v>
       </c>
-      <c r="AH39" t="s">
-        <v>167</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301319</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>4.12</v>
@@ -4285,7 +4969,7 @@
         <v>55775.52</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4327,10 +5011,25 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>48.48</v>
+      </c>
+      <c r="AA40">
+        <v>4.17</v>
       </c>
       <c r="AC40" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4338,22 +5037,25 @@
       <c r="AG40">
         <v>4.359661102294922</v>
       </c>
-      <c r="AH40" t="s">
-        <v>167</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301396</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>8.83</v>
@@ -4371,7 +5073,7 @@
         <v>128955.34</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4413,10 +5115,25 @@
         <v>2.63</v>
       </c>
       <c r="X41" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y41">
+        <v>2.24</v>
+      </c>
+      <c r="Z41">
+        <v>86.7</v>
+      </c>
+      <c r="AA41">
+        <v>6.11</v>
       </c>
       <c r="AC41" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4424,22 +5141,25 @@
       <c r="AG41">
         <v>5.054884433746338</v>
       </c>
-      <c r="AH41" t="s">
-        <v>167</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301421</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>4.78</v>
@@ -4457,7 +5177,7 @@
         <v>280849.41</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4499,10 +5219,25 @@
         <v>-3.23</v>
       </c>
       <c r="X42" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y42">
+        <v>-2.15</v>
+      </c>
+      <c r="Z42">
+        <v>134.55</v>
+      </c>
+      <c r="AA42">
+        <v>-0.92</v>
       </c>
       <c r="AC42" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4510,22 +5245,25 @@
       <c r="AG42">
         <v>-3.477265357971191</v>
       </c>
-      <c r="AH42" t="s">
-        <v>167</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301489</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.44</v>
@@ -4543,7 +5281,7 @@
         <v>64118</v>
       </c>
       <c r="J43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K43">
         <v>12</v>
@@ -4585,10 +5323,25 @@
         <v>0.37</v>
       </c>
       <c r="X43" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y43">
+        <v>-0.14</v>
+      </c>
+      <c r="Z43">
+        <v>291.91</v>
+      </c>
+      <c r="AA43">
+        <v>8.300000000000001</v>
       </c>
       <c r="AC43" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4596,22 +5349,25 @@
       <c r="AG43">
         <v>2.443057537078857</v>
       </c>
-      <c r="AH43" t="s">
-        <v>167</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301550</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>1.78</v>
@@ -4629,7 +5385,7 @@
         <v>61530.03</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>6</v>
@@ -4671,10 +5427,25 @@
         <v>0.15</v>
       </c>
       <c r="X44" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y44">
+        <v>-2.43</v>
+      </c>
+      <c r="Z44">
+        <v>137.78</v>
+      </c>
+      <c r="AA44">
+        <v>2.23</v>
       </c>
       <c r="AC44" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4682,22 +5453,25 @@
       <c r="AG44">
         <v>9.038887977600098</v>
       </c>
-      <c r="AH44" t="s">
-        <v>167</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688028</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.22</v>
@@ -4715,7 +5489,7 @@
         <v>49119.59</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>13</v>
@@ -4757,10 +5531,25 @@
         <v>0.1</v>
       </c>
       <c r="X45" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y45">
+        <v>6.27</v>
+      </c>
+      <c r="Z45">
+        <v>54.9</v>
+      </c>
+      <c r="AA45">
+        <v>6.48</v>
       </c>
       <c r="AC45" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4768,22 +5557,25 @@
       <c r="AG45">
         <v>1.507750034332275</v>
       </c>
-      <c r="AH45" t="s">
-        <v>167</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688041</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.16</v>
@@ -4801,7 +5593,7 @@
         <v>1187536.38</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4843,10 +5635,25 @@
         <v>0.13</v>
       </c>
       <c r="X46" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y46">
+        <v>3.09</v>
+      </c>
+      <c r="Z46">
+        <v>277.98</v>
+      </c>
+      <c r="AA46">
+        <v>6.85</v>
       </c>
       <c r="AC46" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4854,22 +5661,25 @@
       <c r="AG46">
         <v>-15.63565254211426</v>
       </c>
-      <c r="AH46" t="s">
-        <v>167</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688123</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>8.17</v>
@@ -4887,7 +5697,7 @@
         <v>242922.01</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4929,10 +5739,25 @@
         <v>0.38</v>
       </c>
       <c r="X47" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y47">
+        <v>2.84</v>
+      </c>
+      <c r="Z47">
+        <v>131.96</v>
+      </c>
+      <c r="AA47">
+        <v>1.66</v>
       </c>
       <c r="AC47" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4940,22 +5765,25 @@
       <c r="AG47">
         <v>-3.322463750839233</v>
       </c>
-      <c r="AH47" t="s">
-        <v>167</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688135</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.41</v>
@@ -4973,7 +5801,7 @@
         <v>101746.41</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>17</v>
@@ -5015,10 +5843,25 @@
         <v>-0.59</v>
       </c>
       <c r="X48" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y48">
+        <v>-6.79</v>
+      </c>
+      <c r="Z48">
+        <v>37.68</v>
+      </c>
+      <c r="AA48">
+        <v>0.11</v>
       </c>
       <c r="AC48" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5026,22 +5869,25 @@
       <c r="AG48">
         <v>3.933707475662231</v>
       </c>
-      <c r="AH48" t="s">
-        <v>167</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688141</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>12.72</v>
@@ -5059,7 +5905,7 @@
         <v>176280</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K49">
         <v>16</v>
@@ -5101,10 +5947,25 @@
         <v>0.13</v>
       </c>
       <c r="X49" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y49">
+        <v>1.4</v>
+      </c>
+      <c r="Z49">
+        <v>59.09</v>
+      </c>
+      <c r="AA49">
+        <v>1.98</v>
       </c>
       <c r="AC49" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5112,22 +5973,25 @@
       <c r="AG49">
         <v>6.256892681121826</v>
       </c>
-      <c r="AH49" t="s">
-        <v>167</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688147</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>15.32</v>
@@ -5145,7 +6009,7 @@
         <v>143009.89</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K50">
         <v>28</v>
@@ -5187,10 +6051,25 @@
         <v>1.19</v>
       </c>
       <c r="X50" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y50">
+        <v>-5.33</v>
+      </c>
+      <c r="Z50">
+        <v>57.03</v>
+      </c>
+      <c r="AA50">
+        <v>-0.45</v>
       </c>
       <c r="AC50" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5198,22 +6077,25 @@
       <c r="AG50">
         <v>-11.74583148956299</v>
       </c>
-      <c r="AH50" t="s">
-        <v>167</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688195</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-4.96</v>
@@ -5231,7 +6113,7 @@
         <v>97020.60000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>28</v>
@@ -5273,10 +6155,25 @@
         <v>-0.4</v>
       </c>
       <c r="X51" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y51">
+        <v>-6.08</v>
+      </c>
+      <c r="Z51">
+        <v>135.19</v>
+      </c>
+      <c r="AA51">
+        <v>-1.22</v>
       </c>
       <c r="AC51" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5284,22 +6181,25 @@
       <c r="AG51">
         <v>2.22038459777832</v>
       </c>
-      <c r="AH51" t="s">
-        <v>167</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688228</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3.66</v>
@@ -5317,7 +6217,7 @@
         <v>59190.94</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -5359,10 +6259,25 @@
         <v>0.31</v>
       </c>
       <c r="X52" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y52">
+        <v>-5.71</v>
+      </c>
+      <c r="Z52">
+        <v>193.93</v>
+      </c>
+      <c r="AA52">
+        <v>-0.33</v>
       </c>
       <c r="AC52" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5370,22 +6285,25 @@
       <c r="AG52">
         <v>-4.691142559051514</v>
       </c>
-      <c r="AH52" t="s">
-        <v>167</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688330</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-7.66</v>
@@ -5403,7 +6321,7 @@
         <v>41444.98</v>
       </c>
       <c r="J53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5445,10 +6363,25 @@
         <v>-0.28</v>
       </c>
       <c r="X53" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y53">
+        <v>2.21</v>
+      </c>
+      <c r="Z53">
+        <v>43.57</v>
+      </c>
+      <c r="AA53">
+        <v>4.46</v>
       </c>
       <c r="AC53" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5456,22 +6389,25 @@
       <c r="AG53">
         <v>23.63728141784668</v>
       </c>
-      <c r="AH53" t="s">
-        <v>167</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688332</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.33</v>
@@ -5489,7 +6425,7 @@
         <v>138042.62</v>
       </c>
       <c r="J54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5531,10 +6467,25 @@
         <v>1.58</v>
       </c>
       <c r="X54" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y54">
+        <v>-4.82</v>
+      </c>
+      <c r="Z54">
+        <v>156.3</v>
+      </c>
+      <c r="AA54">
+        <v>3.85</v>
       </c>
       <c r="AC54" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5542,22 +6493,25 @@
       <c r="AG54">
         <v>2.786755800247192</v>
       </c>
-      <c r="AH54" t="s">
-        <v>167</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688347</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>4.48</v>
@@ -5575,7 +6529,7 @@
         <v>215414.84</v>
       </c>
       <c r="J55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -5617,10 +6571,25 @@
         <v>0.3</v>
       </c>
       <c r="X55" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y55">
+        <v>5.86</v>
+      </c>
+      <c r="Z55">
+        <v>93</v>
+      </c>
+      <c r="AA55">
+        <v>8.68</v>
       </c>
       <c r="AC55" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5628,22 +6597,25 @@
       <c r="AG55">
         <v>0.9141668677330017</v>
       </c>
-      <c r="AH55" t="s">
-        <v>167</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688373</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.51</v>
@@ -5661,7 +6633,7 @@
         <v>72257.87</v>
       </c>
       <c r="J56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5703,10 +6675,25 @@
         <v>-0.73</v>
       </c>
       <c r="X56" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y56">
+        <v>-10.96</v>
+      </c>
+      <c r="Z56">
+        <v>9.67</v>
+      </c>
+      <c r="AA56">
+        <v>-0.92</v>
       </c>
       <c r="AC56" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5714,22 +6701,25 @@
       <c r="AG56">
         <v>6.35118579864502</v>
       </c>
-      <c r="AH56" t="s">
-        <v>167</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688400</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-5.09</v>
@@ -5747,7 +6737,7 @@
         <v>103480.01</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5789,10 +6779,25 @@
         <v>-0.3</v>
       </c>
       <c r="X57" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y57">
+        <v>-0.14</v>
+      </c>
+      <c r="Z57">
+        <v>50.75</v>
+      </c>
+      <c r="AA57">
+        <v>2.32</v>
       </c>
       <c r="AC57" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5800,22 +6805,25 @@
       <c r="AG57">
         <v>0.2355252206325531</v>
       </c>
-      <c r="AH57" t="s">
-        <v>167</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688403</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>15.46</v>
@@ -5833,7 +6841,7 @@
         <v>123315.47</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5875,10 +6883,25 @@
         <v>0.7</v>
       </c>
       <c r="X58" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y58">
+        <v>-0.05</v>
+      </c>
+      <c r="Z58">
+        <v>18.55</v>
+      </c>
+      <c r="AA58">
+        <v>2.2</v>
       </c>
       <c r="AC58" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5886,22 +6909,25 @@
       <c r="AG58">
         <v>5.361759662628174</v>
       </c>
-      <c r="AH58" t="s">
-        <v>167</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688411</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>4.31</v>
@@ -5919,7 +6945,7 @@
         <v>110664.91</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K59">
         <v>17</v>
@@ -5961,10 +6987,25 @@
         <v>-0.34</v>
       </c>
       <c r="X59" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y59">
+        <v>4.1</v>
+      </c>
+      <c r="Z59">
+        <v>288.87</v>
+      </c>
+      <c r="AA59">
+        <v>7.39</v>
       </c>
       <c r="AC59" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5972,22 +7013,25 @@
       <c r="AG59">
         <v>3.059752464294434</v>
       </c>
-      <c r="AH59" t="s">
-        <v>167</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688502</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>5.09</v>
@@ -6005,7 +7049,7 @@
         <v>104378.59</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -6047,10 +7091,25 @@
         <v>0.55</v>
       </c>
       <c r="X60" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y60">
+        <v>-4.86</v>
+      </c>
+      <c r="Z60">
+        <v>466</v>
+      </c>
+      <c r="AA60">
+        <v>-1.89</v>
       </c>
       <c r="AC60" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6058,22 +7117,25 @@
       <c r="AG60">
         <v>-0.7660470604896545</v>
       </c>
-      <c r="AH60" t="s">
-        <v>167</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688503</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>12.66</v>
@@ -6091,7 +7153,7 @@
         <v>189446.62</v>
       </c>
       <c r="J61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6133,10 +7195,25 @@
         <v>1.04</v>
       </c>
       <c r="X61" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y61">
+        <v>8.94</v>
+      </c>
+      <c r="Z61">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>10.69</v>
       </c>
       <c r="AC61" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6144,22 +7221,25 @@
       <c r="AG61">
         <v>6.726994037628174</v>
       </c>
-      <c r="AH61" t="s">
-        <v>167</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688521</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.94</v>
@@ -6177,7 +7257,7 @@
         <v>453721.6</v>
       </c>
       <c r="J62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K62">
         <v>16</v>
@@ -6219,10 +7299,25 @@
         <v>-0.09</v>
       </c>
       <c r="X62" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y62">
+        <v>1.7</v>
+      </c>
+      <c r="Z62">
+        <v>212</v>
+      </c>
+      <c r="AA62">
+        <v>6.03</v>
       </c>
       <c r="AC62" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6230,22 +7325,25 @@
       <c r="AG62">
         <v>4.228196620941162</v>
       </c>
-      <c r="AH62" t="s">
-        <v>167</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688525</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.88</v>
@@ -6263,7 +7361,7 @@
         <v>357144.99</v>
       </c>
       <c r="J63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6305,10 +7403,25 @@
         <v>1.38</v>
       </c>
       <c r="X63" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y63">
+        <v>-2.9</v>
+      </c>
+      <c r="Z63">
+        <v>92.13</v>
+      </c>
+      <c r="AA63">
+        <v>0.39</v>
       </c>
       <c r="AC63" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6316,22 +7429,25 @@
       <c r="AG63">
         <v>-4.186076164245605</v>
       </c>
-      <c r="AH63" t="s">
-        <v>167</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688535</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>9.99</v>
@@ -6349,7 +7465,7 @@
         <v>93510.25</v>
       </c>
       <c r="J64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6391,10 +7507,25 @@
         <v>0.87</v>
       </c>
       <c r="X64" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y64">
+        <v>-1.31</v>
+      </c>
+      <c r="Z64">
+        <v>118.39</v>
+      </c>
+      <c r="AA64">
+        <v>-1.64</v>
       </c>
       <c r="AC64" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6402,22 +7533,25 @@
       <c r="AG64">
         <v>2.998255014419556</v>
       </c>
-      <c r="AH64" t="s">
-        <v>167</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688559</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>13.3</v>
@@ -6435,7 +7569,7 @@
         <v>109400.33</v>
       </c>
       <c r="J65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K65">
         <v>14</v>
@@ -6477,10 +7611,25 @@
         <v>0.71</v>
       </c>
       <c r="X65" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y65">
+        <v>-4.63</v>
+      </c>
+      <c r="Z65">
+        <v>45.99</v>
+      </c>
+      <c r="AA65">
+        <v>0.74</v>
       </c>
       <c r="AC65" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6488,22 +7637,25 @@
       <c r="AG65">
         <v>1.15014910697937</v>
       </c>
-      <c r="AH65" t="s">
-        <v>167</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688627</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.42</v>
@@ -6521,7 +7673,7 @@
         <v>123730.93</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K66">
         <v>9</v>
@@ -6563,10 +7715,25 @@
         <v>0.11</v>
       </c>
       <c r="X66" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y66">
+        <v>-3.31</v>
+      </c>
+      <c r="Z66">
+        <v>198.86</v>
+      </c>
+      <c r="AA66">
+        <v>9.56</v>
       </c>
       <c r="AC66" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6574,22 +7741,25 @@
       <c r="AG66">
         <v>8.04732608795166</v>
       </c>
-      <c r="AH66" t="s">
-        <v>167</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688629</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.6</v>
@@ -6607,7 +7777,7 @@
         <v>140259.62</v>
       </c>
       <c r="J67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6649,10 +7819,25 @@
         <v>-0.58</v>
       </c>
       <c r="X67" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y67">
+        <v>2.81</v>
+      </c>
+      <c r="Z67">
+        <v>109.4</v>
+      </c>
+      <c r="AA67">
+        <v>6.03</v>
       </c>
       <c r="AC67" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6660,22 +7845,25 @@
       <c r="AG67">
         <v>0.8560366034507751</v>
       </c>
-      <c r="AH67" t="s">
-        <v>167</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688630</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.44</v>
@@ -6693,7 +7881,7 @@
         <v>163155.56</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6735,10 +7923,25 @@
         <v>0.45</v>
       </c>
       <c r="X68" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y68">
+        <v>-1.46</v>
+      </c>
+      <c r="Z68">
+        <v>164</v>
+      </c>
+      <c r="AA68">
+        <v>-0.36</v>
       </c>
       <c r="AC68" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6746,22 +7949,25 @@
       <c r="AG68">
         <v>20.3151798248291</v>
       </c>
-      <c r="AH68" t="s">
-        <v>167</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688652</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>15.36</v>
@@ -6779,7 +7985,7 @@
         <v>134720.37</v>
       </c>
       <c r="J69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6821,10 +8027,25 @@
         <v>-0.21</v>
       </c>
       <c r="X69" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y69">
+        <v>-2.57</v>
+      </c>
+      <c r="Z69">
+        <v>99.95</v>
+      </c>
+      <c r="AA69">
+        <v>-0.52</v>
       </c>
       <c r="AC69" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6832,22 +8053,25 @@
       <c r="AG69">
         <v>-3.53813648223877</v>
       </c>
-      <c r="AH69" t="s">
-        <v>167</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688678</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-3.71</v>
@@ -6865,7 +8089,7 @@
         <v>47967.99</v>
       </c>
       <c r="J70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6907,10 +8131,25 @@
         <v>-0.17</v>
       </c>
       <c r="X70" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y70">
+        <v>-2.62</v>
+      </c>
+      <c r="Z70">
+        <v>36.7</v>
+      </c>
+      <c r="AA70">
+        <v>2.6</v>
       </c>
       <c r="AC70" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6918,22 +8157,25 @@
       <c r="AG70">
         <v>7.829287052154541</v>
       </c>
-      <c r="AH70" t="s">
-        <v>167</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688766</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.3</v>
@@ -6951,7 +8193,7 @@
         <v>146384.77</v>
       </c>
       <c r="J71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K71">
         <v>7</v>
@@ -6993,10 +8235,25 @@
         <v>0.97</v>
       </c>
       <c r="X71" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y71">
+        <v>-3.9</v>
+      </c>
+      <c r="Z71">
+        <v>107.95</v>
+      </c>
+      <c r="AA71">
+        <v>0.06</v>
       </c>
       <c r="AC71" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -7004,22 +8261,25 @@
       <c r="AG71">
         <v>4.952499866485596</v>
       </c>
-      <c r="AH71" t="s">
-        <v>167</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688981</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>5.52</v>
@@ -7037,7 +8297,7 @@
         <v>1667677.9</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -7079,10 +8339,25 @@
         <v>0.41</v>
       </c>
       <c r="X72" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y72">
+        <v>-0.64</v>
+      </c>
+      <c r="Z72">
+        <v>137.8</v>
+      </c>
+      <c r="AA72">
+        <v>1.61</v>
       </c>
       <c r="AC72" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7090,8 +8365,11 @@
       <c r="AG72">
         <v>2.326174974441528</v>
       </c>
-      <c r="AH72" t="s">
-        <v>167</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
